--- a/MSc Thesis Gantt chart update.xlsx
+++ b/MSc Thesis Gantt chart update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\EWEM\Thesis\Thesis_Ottelien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF13D12-DBAA-4164-A349-D5303245F6ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1570B1CE-1878-49E2-AAE4-26BC0E27E9C1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="7" r:id="rId1"/>
@@ -433,12 +433,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFAFD3C5"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC0066"/>
       <color rgb="FFD5A8E7"/>
       <color rgb="FFB86FD7"/>
       <color rgb="FFC14B3A"/>
-      <color rgb="FFAFD3C5"/>
       <color rgb="FFC24B39"/>
       <color rgb="FF62BED6"/>
       <color rgb="FF752A96"/>
@@ -1769,10 +1769,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="AFD3C5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3566,10 +3563,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="AFD3C5"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -6234,8 +6228,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4874419" y="736262"/>
-          <a:ext cx="8215751" cy="1850050"/>
+          <a:off x="4880125" y="756338"/>
+          <a:ext cx="8225426" cy="1900587"/>
           <a:chOff x="0" y="120065"/>
           <a:chExt cx="7693592" cy="1846152"/>
         </a:xfrm>
@@ -8347,8 +8341,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="AG41" sqref="AG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8364,7 +8358,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -9098,15 +9092,15 @@
         <v>43312</v>
       </c>
       <c r="E26" s="16">
-        <f>IF(D26="","",SUM(F26:G26))</f>
+        <f t="shared" ref="E26:E31" si="15">IF(D26="","",SUM(F26:G26))</f>
         <v>152</v>
       </c>
       <c r="F26" s="7">
-        <f>IF(((D26)=""),"",(H26)*(D26-C26))</f>
+        <f t="shared" ref="F26:F31" si="16">IF(((D26)=""),"",(H26)*(D26-C26))</f>
         <v>0</v>
       </c>
       <c r="G26" s="17">
-        <f>IF(F26="","",(D26-C26)-F26)</f>
+        <f t="shared" ref="G26:G31" si="17">IF(F26="","",(D26-C26)-F26)</f>
         <v>152</v>
       </c>
       <c r="H26" s="6">
@@ -9124,15 +9118,15 @@
         <v>43250</v>
       </c>
       <c r="E27" s="16">
-        <f>IF(D27="","",SUM(F27:G27))</f>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="F27" s="7">
-        <f>IF(((D27)=""),"",(H27)*(D27-C27))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G27" s="17">
-        <f>IF(F27="","",(D27-C27)-F27)</f>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="H27" s="6">
@@ -9150,15 +9144,15 @@
         <v>43290</v>
       </c>
       <c r="E28" s="16">
-        <f>IF(D28="","",SUM(F28:G28))</f>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="F28" s="7">
-        <f>IF(((D28)=""),"",(H28)*(D28-C28))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <f>IF(F28="","",(D28-C28)-F28)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="H28" s="6">
@@ -9176,15 +9170,15 @@
         <v>43297</v>
       </c>
       <c r="E29" s="16">
-        <f>IF(D29="","",SUM(F29:G29))</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="F29" s="7">
-        <f>IF(((D29)=""),"",(H29)*(D29-C29))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G29" s="17">
-        <f>IF(F29="","",(D29-C29)-F29)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="H29" s="6">
@@ -9202,15 +9196,15 @@
         <v>43312</v>
       </c>
       <c r="E30" s="16">
-        <f>IF(D30="","",SUM(F30:G30))</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="F30" s="7">
-        <f>IF(((D30)=""),"",(H30)*(D30-C30))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G30" s="17">
-        <f>IF(F30="","",(D30-C30)-F30)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="H30" s="6">
@@ -9228,15 +9222,15 @@
         <v>43328</v>
       </c>
       <c r="E31" s="16">
-        <f>IF(D31="","",SUM(F31:G31))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F31" s="7">
-        <f>IF(((D31)=""),"",(H31)*(D31-C31))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G31" s="17">
-        <f>IF(F31="","",(D31-C31)-F31)</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="H31" s="6">
